--- a/[2] 설계/3조_변환규칙.xlsx
+++ b/[2] 설계/3조_변환규칙.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\5462s\Desktop\Folder\Seoil-Univercity\[2022 2학년 2학기]\Term 프로젝트\TransCompiler for beginner\[2] 구현\Java\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\5462s\Desktop\Folder\TransCompiler_for_beginner\[2] 설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D28031-B69C-4390-9B23-A84B1CB9764B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91D079D-0E70-46FE-A784-3BE50101C038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -533,7 +533,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -601,22 +601,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -628,8 +616,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -939,20 +936,20 @@
       <c r="C2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23" t="s">
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="18" t="s">
@@ -1081,10 +1078,10 @@
       <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="25"/>
+      <c r="E9" s="32"/>
       <c r="H9" s="14"/>
       <c r="I9" s="4"/>
       <c r="M9" s="14"/>
@@ -1136,19 +1133,12 @@
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
       <c r="I12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="J12" s="26" t="s">
+      <c r="J12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
       <c r="M12" s="14"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
@@ -1156,43 +1146,35 @@
       <c r="C13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="26"/>
       <c r="H13" s="14"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
       <c r="M13" s="14"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="26"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
       <c r="M14" s="14"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
@@ -1200,43 +1182,33 @@
       <c r="C15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G15" s="26" t="s">
+      <c r="G15" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H15" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="I15" s="27" t="s">
+      <c r="I15" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
       <c r="M15" s="14"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
       <c r="H16" s="14"/>
-      <c r="I16" s="27" t="s">
+      <c r="I16" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
       <c r="M16" s="14"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
@@ -1244,19 +1216,13 @@
       <c r="C17" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
       <c r="H17" s="14"/>
-      <c r="I17" s="27" t="s">
+      <c r="I17" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="J17" s="26"/>
-      <c r="K17" s="28" t="s">
+      <c r="K17" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="L17" s="26"/>
       <c r="M17" s="14"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
@@ -1267,11 +1233,11 @@
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
       <c r="H18" s="17"/>
-      <c r="I18" s="29" t="s">
+      <c r="I18" s="25" t="s">
         <v>65</v>
       </c>
       <c r="J18" s="16"/>
-      <c r="K18" s="30" t="s">
+      <c r="K18" s="26" t="s">
         <v>67</v>
       </c>
       <c r="L18" s="16"/>
@@ -1280,7 +1246,6 @@
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
       <c r="C19" s="6"/>
-      <c r="D19" s="26"/>
       <c r="H19" s="14"/>
       <c r="I19" s="4"/>
       <c r="M19" s="14"/>
@@ -1288,7 +1253,6 @@
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="26"/>
       <c r="H20" s="14"/>
       <c r="I20" s="4"/>
       <c r="M20" s="14"/>
@@ -1296,7 +1260,6 @@
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
       <c r="C21" s="6"/>
-      <c r="D21" s="26"/>
       <c r="H21" s="14"/>
       <c r="I21" s="4"/>
       <c r="M21" s="14"/>
@@ -1304,7 +1267,6 @@
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="3"/>
       <c r="C22" s="6"/>
-      <c r="D22" s="26"/>
       <c r="H22" s="14"/>
       <c r="I22" s="4"/>
       <c r="M22" s="14"/>
@@ -1312,7 +1274,6 @@
     <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="3"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="26"/>
       <c r="H23" s="14"/>
       <c r="I23" s="4"/>
       <c r="M23" s="14"/>
@@ -1320,7 +1281,6 @@
     <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="26"/>
       <c r="H24" s="14"/>
       <c r="I24" s="4"/>
       <c r="M24" s="14"/>
@@ -1328,7 +1288,6 @@
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="3"/>
       <c r="C25" s="6"/>
-      <c r="D25" s="26"/>
       <c r="H25" s="14"/>
       <c r="I25" s="4"/>
       <c r="M25" s="14"/>
@@ -1336,7 +1295,6 @@
     <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="3"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="26"/>
       <c r="H26" s="14"/>
       <c r="I26" s="4"/>
       <c r="M26" s="14"/>
@@ -1344,7 +1302,6 @@
     <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="3"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="26"/>
       <c r="H27" s="14"/>
       <c r="I27" s="4"/>
       <c r="M27" s="14"/>
@@ -1352,7 +1309,6 @@
     <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="3"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="26"/>
       <c r="H28" s="14"/>
       <c r="I28" s="4"/>
       <c r="M28" s="14"/>
@@ -1418,7 +1374,7 @@
       <c r="C3" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="32"/>
+      <c r="D3" s="28"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
@@ -1427,7 +1383,7 @@
       <c r="C4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="29" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1436,7 +1392,7 @@
       <c r="C5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="29" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1445,7 +1401,7 @@
       <c r="C6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="29" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1456,7 +1412,7 @@
       <c r="C7" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="29" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1465,7 +1421,7 @@
       <c r="C8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="29" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1474,7 +1430,7 @@
       <c r="C9" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="29" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1483,7 +1439,7 @@
       <c r="C10" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="29" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1492,77 +1448,77 @@
       <c r="C11" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="29" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="5"/>
-      <c r="D12" s="33"/>
+      <c r="D12" s="29"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="5"/>
-      <c r="D13" s="33"/>
+      <c r="D13" s="29"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
-      <c r="D14" s="33"/>
+      <c r="D14" s="29"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
-      <c r="D15" s="33"/>
+      <c r="D15" s="29"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" s="5"/>
-      <c r="D16" s="33"/>
+      <c r="D16" s="29"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="5"/>
-      <c r="D17" s="33"/>
+      <c r="D17" s="29"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="5"/>
-      <c r="D18" s="33"/>
+      <c r="D18" s="29"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="5"/>
-      <c r="D19" s="33"/>
+      <c r="D19" s="29"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="5"/>
-      <c r="D20" s="33"/>
+      <c r="D20" s="29"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" s="5"/>
-      <c r="D21" s="33"/>
+      <c r="D21" s="29"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="5"/>
-      <c r="D22" s="33"/>
+      <c r="D22" s="29"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="5"/>
-      <c r="D23" s="33"/>
+      <c r="D23" s="29"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" s="5"/>
-      <c r="D24" s="33"/>
+      <c r="D24" s="29"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" s="5"/>
-      <c r="D25" s="33"/>
+      <c r="D25" s="29"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" s="5"/>
-      <c r="D26" s="33"/>
+      <c r="D26" s="29"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27" s="5"/>
-      <c r="D27" s="33"/>
+      <c r="D27" s="29"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" s="5"/>
-      <c r="D28" s="33"/>
+      <c r="D28" s="29"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B29" s="5"/>
@@ -1571,7 +1527,7 @@
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30" s="19"/>
       <c r="C30" s="16"/>
-      <c r="D30" s="31"/>
+      <c r="D30" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
